--- a/trunk/Admin/BoM/st.xlsx
+++ b/trunk/Admin/BoM/st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jackson\Documents\GitHub\AT\trunk\Admin\BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B1ABFF-6A35-4813-BB44-F268EE0A5A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666745F4-D854-40E6-A7FF-019481C507CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{ECFDB937-B404-481E-88E8-21167102F972}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>PART</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Speaker</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/151031VS06000/4489988</t>
   </si>
 </sst>
 </file>
@@ -533,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614338E9-CF3C-4588-8CAF-721ED59FB861}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +581,7 @@
         <v>0.68</v>
       </c>
       <c r="D2" s="5">
-        <f>B2*C2</f>
+        <f t="shared" ref="D2:D12" si="0">B2*C2</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -593,7 +599,7 @@
         <v>1.66</v>
       </c>
       <c r="D3" s="5">
-        <f>B3*C3</f>
+        <f t="shared" si="0"/>
         <v>8.2999999999999989</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -611,7 +617,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="D4" s="5">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>5.6000000000000005</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -629,7 +635,7 @@
         <v>0.47</v>
       </c>
       <c r="D5" s="5">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>2.3499999999999996</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -647,7 +653,7 @@
         <v>0.48</v>
       </c>
       <c r="D6" s="5">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -665,7 +671,7 @@
         <v>0.95</v>
       </c>
       <c r="D7" s="5">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -683,7 +689,7 @@
         <v>0.67</v>
       </c>
       <c r="D8" s="5">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -701,7 +707,7 @@
         <v>0.66</v>
       </c>
       <c r="D9" s="5">
-        <f>B9*C9</f>
+        <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -719,7 +725,7 @@
         <v>1.05</v>
       </c>
       <c r="D10" s="5">
-        <f>B10*C10</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -737,23 +743,41 @@
         <v>1.8</v>
       </c>
       <c r="D11" s="5">
-        <f>B11*C11</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="5">
-        <f>SUM(D2:D11)</f>
-        <v>56.3</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="5">
-        <f>D13/5</f>
-        <v>11.26</v>
+        <f>SUM(D2:D12)</f>
+        <v>59.699999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <f>D14/5</f>
+        <v>11.94</v>
       </c>
     </row>
   </sheetData>
@@ -768,6 +792,7 @@
     <hyperlink ref="E9" r:id="rId8" xr:uid="{139037EB-D7FC-4213-95EC-E98370086288}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{1A954889-6E9C-4C66-8F61-4CDF5B4A09BF}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{1CD0E02A-788D-46B9-964E-0C6870205DAE}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{10BB362E-8D6B-478D-8A6C-2167DAFB4220}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
